--- a/備審/36th盃賽補助(1).xlsx
+++ b/備審/36th盃賽補助(1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnnyHsu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnnyHsu\Documents\GitHub\CYCUICE_PL\備審\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9720"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="8" r:id="rId1"/>
@@ -642,7 +642,231 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="57">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1031,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AC82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U19" sqref="T4:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1109,6 +1333,9 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
+      <c r="E4" s="1">
+        <v>500</v>
+      </c>
       <c r="F4" s="1">
         <v>10627232</v>
       </c>
@@ -1118,6 +1345,9 @@
       <c r="I4" s="2">
         <v>1</v>
       </c>
+      <c r="J4" s="1">
+        <v>500</v>
+      </c>
       <c r="K4" s="1">
         <v>10727107</v>
       </c>
@@ -1130,6 +1360,9 @@
       <c r="N4" s="2">
         <v>1</v>
       </c>
+      <c r="O4" s="1">
+        <v>1100</v>
+      </c>
       <c r="P4" s="1">
         <v>10627136</v>
       </c>
@@ -1138,6 +1371,9 @@
       </c>
       <c r="R4" s="1">
         <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>500</v>
       </c>
       <c r="T4" s="1">
         <v>10977017</v>
@@ -1165,6 +1401,9 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
+      <c r="E5" s="1">
+        <v>1100</v>
+      </c>
       <c r="F5" s="1">
         <v>10727119</v>
       </c>
@@ -1175,6 +1414,9 @@
         <v>1</v>
       </c>
       <c r="I5" s="2"/>
+      <c r="J5" s="1">
+        <v>600</v>
+      </c>
       <c r="K5" s="1">
         <v>10727208</v>
       </c>
@@ -1187,6 +1429,9 @@
       <c r="N5" s="2">
         <v>1</v>
       </c>
+      <c r="O5" s="1">
+        <v>1100</v>
+      </c>
       <c r="P5" s="4">
         <v>10627119</v>
       </c>
@@ -1195,6 +1440,9 @@
       </c>
       <c r="R5" s="1">
         <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>500</v>
       </c>
       <c r="T5" s="4">
         <v>10827254</v>
@@ -1216,6 +1464,9 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
+      <c r="E6" s="1">
+        <v>1100</v>
+      </c>
       <c r="F6" s="1">
         <v>10727214</v>
       </c>
@@ -1228,6 +1479,9 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
+      <c r="J6" s="1">
+        <v>1100</v>
+      </c>
       <c r="K6" s="1">
         <v>10927102</v>
       </c>
@@ -1240,6 +1494,9 @@
       <c r="N6" s="2">
         <v>1</v>
       </c>
+      <c r="O6" s="1">
+        <v>1100</v>
+      </c>
       <c r="P6" s="4">
         <v>10727219</v>
       </c>
@@ -1248,6 +1505,9 @@
       </c>
       <c r="R6" s="1">
         <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>500</v>
       </c>
       <c r="T6" s="4">
         <v>10727219</v>
@@ -1266,6 +1526,9 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
+      <c r="E7" s="1">
+        <v>600</v>
+      </c>
       <c r="F7" s="1">
         <v>10727247</v>
       </c>
@@ -1278,6 +1541,9 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
+      <c r="J7" s="1">
+        <v>1100</v>
+      </c>
       <c r="K7" s="1">
         <v>10927142</v>
       </c>
@@ -1289,6 +1555,13 @@
       </c>
       <c r="N7" s="2">
         <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1100</v>
+      </c>
+      <c r="S7" s="1">
+        <f>SUM(S4:S6)</f>
+        <v>1500</v>
       </c>
       <c r="T7" s="1">
         <v>10627137</v>
@@ -1307,6 +1580,9 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
+      <c r="E8" s="1">
+        <v>600</v>
+      </c>
       <c r="F8" s="1">
         <v>10777022</v>
       </c>
@@ -1316,6 +1592,9 @@
       <c r="H8" s="2">
         <v>1</v>
       </c>
+      <c r="J8" s="1">
+        <v>600</v>
+      </c>
       <c r="K8" s="1">
         <v>10927202</v>
       </c>
@@ -1326,6 +1605,9 @@
         <v>1</v>
       </c>
       <c r="N8" s="2"/>
+      <c r="O8" s="1">
+        <v>600</v>
+      </c>
       <c r="T8" s="5">
         <v>10827144</v>
       </c>
@@ -1346,6 +1628,9 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
+      <c r="E9" s="1">
+        <v>1100</v>
+      </c>
       <c r="F9" s="1">
         <v>10827115</v>
       </c>
@@ -1358,6 +1643,9 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
+      <c r="J9" s="1">
+        <v>1100</v>
+      </c>
       <c r="K9" s="1">
         <v>10927203</v>
       </c>
@@ -1366,6 +1654,9 @@
       </c>
       <c r="M9" s="1">
         <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>600</v>
       </c>
       <c r="T9" s="6">
         <v>10627254</v>
@@ -1385,6 +1676,9 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
+      <c r="E10" s="1">
+        <v>500</v>
+      </c>
       <c r="F10" s="1">
         <v>10827118</v>
       </c>
@@ -1397,6 +1691,9 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
+      <c r="J10" s="1">
+        <v>1100</v>
+      </c>
       <c r="K10" s="1">
         <v>10927244</v>
       </c>
@@ -1408,6 +1705,9 @@
       </c>
       <c r="N10" s="2">
         <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1100</v>
       </c>
       <c r="T10" s="4">
         <v>10627119</v>
@@ -1428,6 +1728,9 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
+      <c r="E11" s="1">
+        <v>600</v>
+      </c>
       <c r="F11" s="1">
         <v>10827124</v>
       </c>
@@ -1439,6 +1742,9 @@
       </c>
       <c r="I11" s="1">
         <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1100</v>
       </c>
       <c r="T11" s="1">
         <v>10627136</v>
@@ -1459,6 +1765,9 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
+      <c r="E12" s="1">
+        <v>600</v>
+      </c>
       <c r="F12" s="1">
         <v>10827138</v>
       </c>
@@ -1468,6 +1777,9 @@
       <c r="I12" s="2">
         <v>1</v>
       </c>
+      <c r="J12" s="1">
+        <v>500</v>
+      </c>
       <c r="K12" s="1">
         <v>10727204</v>
       </c>
@@ -1479,6 +1791,9 @@
       </c>
       <c r="N12" s="1">
         <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>200</v>
       </c>
       <c r="T12" s="1">
         <v>10727252</v>
@@ -1497,6 +1812,9 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
+      <c r="E13" s="1">
+        <v>600</v>
+      </c>
       <c r="F13" s="1">
         <v>10827152</v>
       </c>
@@ -1508,6 +1826,9 @@
       </c>
       <c r="I13" s="1">
         <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1100</v>
       </c>
       <c r="T13" s="4">
         <v>10627249</v>
@@ -1529,6 +1850,9 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
+      <c r="E14" s="1">
+        <v>1100</v>
+      </c>
       <c r="F14" s="1">
         <v>10827214</v>
       </c>
@@ -1540,6 +1864,9 @@
       </c>
       <c r="I14" s="1">
         <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1100</v>
       </c>
       <c r="T14" s="6">
         <v>10727246</v>
@@ -1561,6 +1888,9 @@
       <c r="I15" s="1">
         <v>1</v>
       </c>
+      <c r="J15" s="1">
+        <v>1100</v>
+      </c>
       <c r="T15" s="1">
         <v>10727222</v>
       </c>
@@ -1581,6 +1911,9 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
+      <c r="E16" s="1">
+        <v>200</v>
+      </c>
       <c r="F16" s="1">
         <v>10927125</v>
       </c>
@@ -1590,6 +1923,9 @@
       <c r="I16" s="2">
         <v>1</v>
       </c>
+      <c r="J16" s="1">
+        <v>500</v>
+      </c>
       <c r="T16" s="1">
         <v>10827106</v>
       </c>
@@ -1598,6 +1934,10 @@
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <f>SUM(E4:E16)</f>
+        <v>8600</v>
+      </c>
       <c r="F17" s="1">
         <v>10927240</v>
       </c>
@@ -1609,6 +1949,9 @@
       </c>
       <c r="I17" s="1">
         <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1100</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>23</v>
@@ -1636,6 +1979,9 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
+      <c r="J18" s="1">
+        <v>1100</v>
+      </c>
       <c r="K18" s="1">
         <v>10827205</v>
       </c>
@@ -1647,6 +1993,9 @@
       </c>
       <c r="N18" s="1">
         <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1000</v>
       </c>
       <c r="T18" s="5">
         <v>10827140</v>
@@ -1668,6 +2017,9 @@
       <c r="N19" s="1">
         <v>1</v>
       </c>
+      <c r="O19" s="1">
+        <v>1000</v>
+      </c>
       <c r="T19" s="8">
         <v>10827148</v>
       </c>
@@ -1685,6 +2037,9 @@
       <c r="H20" s="2">
         <v>1</v>
       </c>
+      <c r="J20" s="1">
+        <v>100</v>
+      </c>
       <c r="K20" s="1">
         <v>10827235</v>
       </c>
@@ -1693,6 +2048,9 @@
       </c>
       <c r="M20" s="2">
         <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>500</v>
       </c>
       <c r="U20" s="1">
         <v>575</v>
@@ -1719,6 +2077,9 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
+      <c r="J21" s="1">
+        <v>100</v>
+      </c>
       <c r="K21" s="1">
         <v>10827138</v>
       </c>
@@ -1727,6 +2088,9 @@
       </c>
       <c r="M21" s="2">
         <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
@@ -1746,6 +2110,9 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
+      <c r="J22" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -1764,6 +2131,9 @@
       <c r="H23" s="2">
         <v>1</v>
       </c>
+      <c r="J23" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -1773,6 +2143,10 @@
         <f>SUM(C16:D16,H20:I23,M12:N12)</f>
         <v>8</v>
       </c>
+      <c r="J24" s="1">
+        <f>SUM(J4:J23)</f>
+        <v>14100</v>
+      </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
@@ -1807,6 +2181,10 @@
         <v>4100</v>
       </c>
       <c r="E27" s="2"/>
+      <c r="G27" s="1">
+        <f>E17+J24+O31+S7</f>
+        <v>36100</v>
+      </c>
       <c r="K27" s="1">
         <v>10927106</v>
       </c>
@@ -1815,6 +2193,9 @@
       </c>
       <c r="M27" s="2">
         <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
@@ -1832,6 +2213,9 @@
       <c r="M28" s="2">
         <v>1</v>
       </c>
+      <c r="O28" s="1">
+        <v>500</v>
+      </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
@@ -1844,6 +2228,9 @@
       <c r="M29" s="2">
         <v>1</v>
       </c>
+      <c r="O29" s="1">
+        <v>500</v>
+      </c>
     </row>
     <row r="30" spans="2:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
@@ -1867,12 +2254,19 @@
       <c r="M30" s="2">
         <v>1</v>
       </c>
+      <c r="O30" s="1">
+        <v>500</v>
+      </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>400</v>
       </c>
       <c r="E31" s="2"/>
+      <c r="O31" s="1">
+        <f>SUM(O4:O30)</f>
+        <v>11900</v>
+      </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
@@ -1953,121 +2347,249 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J58 J32">
-    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="是">
+    <cfRule type="containsText" dxfId="56" priority="65" operator="containsText" text="是">
       <formula>NOT(ISERROR(SEARCH("是",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J70:J72 J65:J66 J62 J82 AA10:AA11 J34">
-    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="是">
+    <cfRule type="containsText" dxfId="55" priority="63" operator="containsText" text="是">
       <formula>NOT(ISERROR(SEARCH("是",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70:L72 L65:L66 L61:L62 L82 AC10:AC11 L34 L58:L59 N9 L32 M29:M30 H5:I5 I16 H18 I12 H8:I8 I4 H21:H23">
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="greaterThan">
+  <conditionalFormatting sqref="L70:L72 L65:L66 L61:L62 L82 AC10:AC11 L34 L58:L59 L32 M29:M30 H5:I5 I16 H18 I12 H8:I8 I4 H21:H23 N9:O9">
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="59" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N7">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="57" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9">
-    <cfRule type="containsText" dxfId="19" priority="24" operator="containsText" text="是">
+    <cfRule type="containsText" dxfId="51" priority="56" operator="containsText" text="是">
       <formula>NOT(ISERROR(SEARCH("是",AA9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="55" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:M28">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:M21">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C41">
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="是">
+    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="是">
       <formula>NOT(ISERROR(SEARCH("是",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E41">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="49" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:R6">
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="是">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="是">
       <formula>NOT(ISERROR(SEARCH("是",R5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="是">
+  <conditionalFormatting sqref="R4:S4">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="是">
       <formula>NOT(ISERROR(SEARCH("是",R4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D14 C16:D16 H4:I18 H20:I23 M4:N10 M12:N12 M18:N21 M27:M30 R4:R6">
+  <conditionalFormatting sqref="C4:D14 H4:I18 H20:I23 M4:N10 M12:N12 M27:M30 R4:R6 C16:E16 E14 E9 E5:E6 O8:O9 M18:O21 S4">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:J8">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
